--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Lesotho/Pandémie_de_Covid-19_au_Lesotho.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Lesotho/Pandémie_de_Covid-19_au_Lesotho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Lesotho</t>
+          <t>Pandémie_de_Covid-19_au_Lesotho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Lesotho démarre officiellement le 13 mai 2020. À la date du 7 octobre 2022, le bilan est de 706 morts.
-Le Lesotho est le dernier pays d'Afrique à avoir signalé un cas de COVID-19 pendant la pandémie[2],[3].
+Le Lesotho est le dernier pays d'Afrique à avoir signalé un cas de COVID-19 pendant la pandémie,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Lesotho</t>
+          <t>Pandémie_de_Covid-19_au_Lesotho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pays n'avait pas la capacité de tester les patients à la recherche du virus afin de limiter la propagation du virus. Le gouvernement a fermé sa frontière avec l'Afrique du Sud. Le 18 mars, le gouvernement a déclaré une urgence nationale malgré l'absence de cas confirmés et a fermé les écoles jusqu'au 17 avril, mais a autorisé la poursuite des repas scolaires. Les voyageurs arrivant devaient être mis en quarantaine pendant 14 jours à leur arrivée. Le Premier ministre Thomas Thabane a annoncé un verrouillage de trois semaines à partir de minuit le 29 mars. Le Lesotho a commencé à envoyer ses échantillons à l'Institut national sud-africain des maladies transmissibles pour analyse[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pays n'avait pas la capacité de tester les patients à la recherche du virus afin de limiter la propagation du virus. Le gouvernement a fermé sa frontière avec l'Afrique du Sud. Le 18 mars, le gouvernement a déclaré une urgence nationale malgré l'absence de cas confirmés et a fermé les écoles jusqu'au 17 avril, mais a autorisé la poursuite des repas scolaires. Les voyageurs arrivant devaient être mis en quarantaine pendant 14 jours à leur arrivée. Le Premier ministre Thomas Thabane a annoncé un verrouillage de trois semaines à partir de minuit le 29 mars. Le Lesotho a commencé à envoyer ses échantillons à l'Institut national sud-africain des maladies transmissibles pour analyse.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Lesotho</t>
+          <t>Pandémie_de_Covid-19_au_Lesotho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,39 +558,41 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>13 mai 2020 : Le Lesotho a confirmé son premier cas.
 22 mai 2020 : Le deuxième cas a été signalé.
-3 juin 2020 : Deux autres cas ont été signalés, tous deux venaient du Cap[5]. Au total en juin il y avait 25 cas, portant le nombre global à 27[6].
-En juillet il y avait 577 cas, portant le nombre global à 604, ainsi que 13 décès[7].
-En août il y avait 481 cas et 18 décès, portant le nombre global à 1 085[8].
-En septembre il y avait quatre décès et 480 cas, portant le nombre global à 1 565[9].
-En octobre il y avait neuf décès et 388 cas, portant à 1 953 le nombre de cas dont 44 décès[10].
-En novembre il y avait 156 nouveaux cas, portant le nombre de cas à 2 109 dont 44 décès[11].
-En décembre il y avait 1 097 nouveaux cas et sept décès, portant le nombre de cas à 3 206 dont 51 décès[12].
-En janvier 2021 il y avait 5 458 nouveaux cas et 121 décès, portant le nombre de cas à 8 664 dont 172 décès[13].
-En février 2021 il y avait 1 827 nouveaux cas et 120 décès, portant le nombre de cas à 10 491 dont 292 décès[14].
-En mars 2021 il y avait 215 nouveaux cas et 23 décès, portant le nombre de cas à 10 706 dont 315 décès[15].
-En avril 2021 il y avait 25 nouveaux cas et un décès, portant le nombre de cas à 10 731 dont 316 décès[16].
-En mai 2021 il y avait 100 nouveaux cas et dix décès, portant le nombre de cas à 10 831 dont 326 décès[17].
-En juin 2021 il y avait 585 nouveaux cas et trois décès, portant le nombre de cas à 11 416 dont 329 décès[18].
-En juillet 2021 il y avait 2 187 nouveaux cas et 48 décès, portant le nombre de cas à 13 603 dont 377 décès[19].
-En août 2021 il y avait 792 nouveaux cas et 26 décès, portant le nombre de cas à 14 395 dont 403 décès[20].
+3 juin 2020 : Deux autres cas ont été signalés, tous deux venaient du Cap. Au total en juin il y avait 25 cas, portant le nombre global à 27.
+En juillet il y avait 577 cas, portant le nombre global à 604, ainsi que 13 décès.
+En août il y avait 481 cas et 18 décès, portant le nombre global à 1 085.
+En septembre il y avait quatre décès et 480 cas, portant le nombre global à 1 565.
+En octobre il y avait neuf décès et 388 cas, portant à 1 953 le nombre de cas dont 44 décès.
+En novembre il y avait 156 nouveaux cas, portant le nombre de cas à 2 109 dont 44 décès.
+En décembre il y avait 1 097 nouveaux cas et sept décès, portant le nombre de cas à 3 206 dont 51 décès.
+En janvier 2021 il y avait 5 458 nouveaux cas et 121 décès, portant le nombre de cas à 8 664 dont 172 décès.
+En février 2021 il y avait 1 827 nouveaux cas et 120 décès, portant le nombre de cas à 10 491 dont 292 décès.
+En mars 2021 il y avait 215 nouveaux cas et 23 décès, portant le nombre de cas à 10 706 dont 315 décès.
+En avril 2021 il y avait 25 nouveaux cas et un décès, portant le nombre de cas à 10 731 dont 316 décès.
+En mai 2021 il y avait 100 nouveaux cas et dix décès, portant le nombre de cas à 10 831 dont 326 décès.
+En juin 2021 il y avait 585 nouveaux cas et trois décès, portant le nombre de cas à 11 416 dont 329 décès.
+En juillet 2021 il y avait 2 187 nouveaux cas et 48 décès, portant le nombre de cas à 13 603 dont 377 décès.
+En août 2021 il y avait 792 nouveaux cas et 26 décès, portant le nombre de cas à 14 395 dont 403 décès.
 En septembre 2021 il y avait 6 867 nouveaux cas et 229 décès, portant le nombre de cas à 21 262 dont 632 décès.
-En octobre 2021 il y avait 373 nouveaux cas et 26 décès, portant le nombre de cas à 21 635 dont 658 décès[21].
-En novembre 2021 il y avait 172 nouveaux cas et cinq décès, portant le nombre de cas à 21 807 dont 663 décès[22].
-En décembre 2021 il y avait 7 845 nouveaux cas et huit décès, portant le nombre de cas à 29 652 dont 671 décès[23].
-En janvier 2022 il y avait 2 606 nouveaux cas et 23 décès, portant le nombre de cas à 32 258 dont 694 décès[24].
-En février 2022 il y avait 449 nouveaux cas et trois décès, portant le nombre de cas à 32 707 dont 697 décès[25].
-En mars 2022 il y avait 203 nouveaux cas, portant le nombre de cas à 32 910 dont 697 décès[26].
-En avril 2022 il y avait 227 nouveaux cas, portant le nombre de cas à 33 137 dont 697 décès[27].
-En mai 2022 il y avait 425 nouveaux cas et deux décès, portant le nombre de cas à 33 562 dont 699 décès[28].
-En juin 2022 il y avait 471 nouveaux cas et un décès, portant le nombre de cas à 34 033 dont 700 décès[29].
-En août 2022 il y avait 173 nouveaux cas et quatre décès, portant le nombre de cas à 34 206 dont 704 décès[30].
-En septembre 2022 il y avait 371 nouveaux cas et deux décès, portant le nombre de cas à 34 577 dont 706 décès[31].
-En novembre 2022 il y avait 431 nouveaux cas et un décès, portant le nombre de cas à 35 008 dont 707 décès[32].
-En décembre 2022 il y avait 139 nouveaux cas et deux décès, portant le nombre de cas à 35 147 dont 709 décès[33].</t>
+En octobre 2021 il y avait 373 nouveaux cas et 26 décès, portant le nombre de cas à 21 635 dont 658 décès.
+En novembre 2021 il y avait 172 nouveaux cas et cinq décès, portant le nombre de cas à 21 807 dont 663 décès.
+En décembre 2021 il y avait 7 845 nouveaux cas et huit décès, portant le nombre de cas à 29 652 dont 671 décès.
+En janvier 2022 il y avait 2 606 nouveaux cas et 23 décès, portant le nombre de cas à 32 258 dont 694 décès.
+En février 2022 il y avait 449 nouveaux cas et trois décès, portant le nombre de cas à 32 707 dont 697 décès.
+En mars 2022 il y avait 203 nouveaux cas, portant le nombre de cas à 32 910 dont 697 décès.
+En avril 2022 il y avait 227 nouveaux cas, portant le nombre de cas à 33 137 dont 697 décès.
+En mai 2022 il y avait 425 nouveaux cas et deux décès, portant le nombre de cas à 33 562 dont 699 décès.
+En juin 2022 il y avait 471 nouveaux cas et un décès, portant le nombre de cas à 34 033 dont 700 décès.
+En août 2022 il y avait 173 nouveaux cas et quatre décès, portant le nombre de cas à 34 206 dont 704 décès.
+En septembre 2022 il y avait 371 nouveaux cas et deux décès, portant le nombre de cas à 34 577 dont 706 décès.
+En novembre 2022 il y avait 431 nouveaux cas et un décès, portant le nombre de cas à 35 008 dont 707 décès.
+En décembre 2022 il y avait 139 nouveaux cas et deux décès, portant le nombre de cas à 35 147 dont 709 décès.</t>
         </is>
       </c>
     </row>
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Lesotho</t>
+          <t>Pandémie_de_Covid-19_au_Lesotho</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,7 +620,9 @@
           <t>Réponses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Restrictions de voyage
 Fermeture des frontières
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Lesotho</t>
+          <t>Pandémie_de_Covid-19_au_Lesotho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,6 +655,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -644,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Lesotho</t>
+          <t>Pandémie_de_Covid-19_au_Lesotho</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +682,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
